--- a/数据整理/stocks/A股/深证主板/000878-云南铜业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000878-云南铜业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>050018</t>
+          <t>003625</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时行业轮动混合</t>
+          <t>创金合信资源主题精选股票C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.79</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.18</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003625</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信资源主题精选股票C</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004205</t>
+          <t>050018</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方支柱产业灵活配置混合</t>
+          <t>博时行业轮动混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93.29</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>6.11</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>004205</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>东方支柱产业灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -716,15 +796,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>84.25</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.39</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7424</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>84.25</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.39</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000878-云南铜业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000878-云南铜业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7045</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000878-云南铜业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000878-云南铜业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,4 +1031,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000878-云南铜业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000878-云南铜业.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1039,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,17 +1051,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1070,14 +1091,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2404</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.96</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -1086,14 +1181,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="4">
@@ -1102,13 +1197,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000878-云南铜业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000878-云南铜业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.24</v>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3190</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.96</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1262,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.88</v>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1300,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000878-云南铜业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000878-云南铜业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1381,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,17 +1393,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1412,14 +1433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.51</v>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7412</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1428,14 +1471,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.24</v>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2527</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1444,14 +1509,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.96</v>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1460,14 +1547,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.88</v>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1476,13 +1585,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000878-云南铜业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000878-云南铜业.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,281 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003625</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>创金合信资源主题精选股票C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3771</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003624</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>创金合信资源主题精选股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3331</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1723</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>050018</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1629</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0959</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004205</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方支柱产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -740,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -791,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>240022</t>
+          <t>001556</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝资源优选混合A</t>
+          <t>天弘中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.90</t>
+          <t>44.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.25</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7424</t>
+          <t>0.7412</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -829,36 +677,264 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011068</t>
+          <t>001557</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝资源优选混合C</t>
+          <t>天弘中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>15.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.25</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1393</t>
+          <t>0.2527</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,7 +969,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -923,36 +999,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012719</t>
+          <t>217024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+          <t>招商安盈债券</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.58</t>
+          <t>35.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>61.82</t>
+          <t>20.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7045</t>
+          <t>0.3190</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -961,36 +1037,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>217024</t>
+          <t>008997</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商安盈债券</t>
+          <t>同泰竞争优势混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.66</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.04</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2159</t>
+          <t>0.0722</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -999,36 +1075,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012720</t>
+          <t>012496</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+          <t>同泰行业优选股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>61.82</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0368</t>
+          <t>0.0560</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1157,7 +1309,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1187,36 +1339,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>217024</t>
+          <t>012719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商安盈债券</t>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.05</t>
+          <t>22.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.20</t>
+          <t>61.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3190</t>
+          <t>0.7045</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1225,36 +1377,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008997</t>
+          <t>217024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>同泰竞争优势混合A</t>
+          <t>招商安盈债券</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>26.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>20.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0722</t>
+          <t>0.2159</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1263,112 +1415,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012496</t>
+          <t>012720</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>同泰行业优选股票A</t>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>61.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0560</t>
+          <t>0.0368</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008998</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>同泰竞争优势混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0516</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>012497</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>同泰行业优选股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1382,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1403,7 +1479,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1433,36 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>240022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>华宝资源优选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.65</t>
+          <t>21.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>84.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7412</t>
+          <t>0.7424</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1471,264 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001557</t>
+          <t>011068</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强C</t>
+          <t>华宝资源优选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.22</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>84.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2527</t>
+          <t>0.1393</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005994</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1399</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>159610</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城中证500增强策略ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.78</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0935</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007089</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0449</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011731</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国投瑞银安睿混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>34.72</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0114</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005120</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>上投摩根量化多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011732</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银安睿混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>34.72</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1742,128 +1590,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.16</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000878-云南铜业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000878-云南铜业.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.51</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.24</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.96</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -583,6 +600,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015889</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015890</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -942,7 +1167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1188,7 +1413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1282,7 +1507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1452,7 +1677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1584,7 +1809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000878-云南铜业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000878-云南铜业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.51</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.24</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.96</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -600,6 +617,1278 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8311</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5929</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4310</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4200</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2137</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +2096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1167,7 +2456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1413,7 +2702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1507,7 +2796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1677,7 +2966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1809,7 +3098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
